--- a/Jogos_do_Dia/2023-08-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>League</t>
   </si>
@@ -124,13 +124,34 @@
     <t>Chile Primera División</t>
   </si>
   <si>
+    <t>Brazil Serie B</t>
+  </si>
+  <si>
+    <t>South America Copa Libertadores</t>
+  </si>
+  <si>
     <t>21:00:00</t>
   </si>
   <si>
+    <t>21:30:00</t>
+  </si>
+  <si>
     <t>Unión Española</t>
   </si>
   <si>
+    <t>Juventude</t>
+  </si>
+  <si>
+    <t>Olimpia</t>
+  </si>
+  <si>
     <t>Universidad Católica</t>
+  </si>
+  <si>
+    <t>Chapecoense</t>
+  </si>
+  <si>
+    <t>Fluminense</t>
   </si>
 </sst>
 </file>
@@ -492,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AI4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,16 +634,16 @@
         <v>45169</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G2">
         <v>2.16</v>
@@ -688,13 +709,13 @@
         <v>2.85</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="AE2">
         <v>1.24</v>
@@ -710,6 +731,220 @@
       </c>
       <c r="AI2">
         <v>3.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3">
+        <v>1.76</v>
+      </c>
+      <c r="H3">
+        <v>3.05</v>
+      </c>
+      <c r="I3">
+        <v>4.9</v>
+      </c>
+      <c r="J3">
+        <v>1.09</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+      <c r="L3">
+        <v>1.57</v>
+      </c>
+      <c r="M3">
+        <v>2.4</v>
+      </c>
+      <c r="N3">
+        <v>2.53</v>
+      </c>
+      <c r="O3">
+        <v>1.42</v>
+      </c>
+      <c r="P3">
+        <v>1.55</v>
+      </c>
+      <c r="Q3">
+        <v>2.3</v>
+      </c>
+      <c r="R3">
+        <v>2.37</v>
+      </c>
+      <c r="S3">
+        <v>1.5</v>
+      </c>
+      <c r="T3">
+        <v>1.17</v>
+      </c>
+      <c r="U3">
+        <v>1.32</v>
+      </c>
+      <c r="V3">
+        <v>1.95</v>
+      </c>
+      <c r="W3">
+        <v>1.67</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1.6</v>
+      </c>
+      <c r="Z3">
+        <v>1.29</v>
+      </c>
+      <c r="AA3">
+        <v>2.89</v>
+      </c>
+      <c r="AB3">
+        <v>1.55</v>
+      </c>
+      <c r="AC3">
+        <v>7.5</v>
+      </c>
+      <c r="AD3">
+        <v>3.1</v>
+      </c>
+      <c r="AE3">
+        <v>1.18</v>
+      </c>
+      <c r="AF3">
+        <v>1.35</v>
+      </c>
+      <c r="AG3">
+        <v>1.63</v>
+      </c>
+      <c r="AH3">
+        <v>2.1</v>
+      </c>
+      <c r="AI3">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45169</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>2.53</v>
+      </c>
+      <c r="H4">
+        <v>3.37</v>
+      </c>
+      <c r="I4">
+        <v>2.38</v>
+      </c>
+      <c r="J4">
+        <v>1.05</v>
+      </c>
+      <c r="K4">
+        <v>10</v>
+      </c>
+      <c r="L4">
+        <v>1.32</v>
+      </c>
+      <c r="M4">
+        <v>3.26</v>
+      </c>
+      <c r="N4">
+        <v>1.92</v>
+      </c>
+      <c r="O4">
+        <v>1.78</v>
+      </c>
+      <c r="P4">
+        <v>1.4</v>
+      </c>
+      <c r="Q4">
+        <v>2.75</v>
+      </c>
+      <c r="R4">
+        <v>1.8</v>
+      </c>
+      <c r="S4">
+        <v>1.95</v>
+      </c>
+      <c r="T4">
+        <v>1.43</v>
+      </c>
+      <c r="U4">
+        <v>1.31</v>
+      </c>
+      <c r="V4">
+        <v>1.5</v>
+      </c>
+      <c r="W4">
+        <v>1.89</v>
+      </c>
+      <c r="X4">
+        <v>1.89</v>
+      </c>
+      <c r="Y4">
+        <v>1.56</v>
+      </c>
+      <c r="Z4">
+        <v>1.29</v>
+      </c>
+      <c r="AA4">
+        <v>2.85</v>
+      </c>
+      <c r="AB4">
+        <v>1.92</v>
+      </c>
+      <c r="AC4">
+        <v>7.5</v>
+      </c>
+      <c r="AD4">
+        <v>2.16</v>
+      </c>
+      <c r="AE4">
+        <v>1.32</v>
+      </c>
+      <c r="AF4">
+        <v>1.6</v>
+      </c>
+      <c r="AG4">
+        <v>2</v>
+      </c>
+      <c r="AH4">
+        <v>2.55</v>
+      </c>
+      <c r="AI4">
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-08-31_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-08-31_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -646,13 +646,13 @@
         <v>43</v>
       </c>
       <c r="G2">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="H2">
-        <v>3.63</v>
+        <v>3.45</v>
       </c>
       <c r="I2">
-        <v>3.26</v>
+        <v>2.88</v>
       </c>
       <c r="J2">
         <v>1.03</v>
@@ -667,10 +667,10 @@
         <v>3.75</v>
       </c>
       <c r="N2">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="O2">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="P2">
         <v>1.36</v>
@@ -753,13 +753,13 @@
         <v>44</v>
       </c>
       <c r="G3">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="H3">
         <v>3.05</v>
       </c>
       <c r="I3">
-        <v>4.9</v>
+        <v>4.35</v>
       </c>
       <c r="J3">
         <v>1.09</v>
@@ -768,16 +768,16 @@
         <v>7</v>
       </c>
       <c r="L3">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="M3">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="N3">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="O3">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="P3">
         <v>1.55</v>
